--- a/Document Library/Drawings/BOM Base Frame Step 2.xlsx
+++ b/Document Library/Drawings/BOM Base Frame Step 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roy\OneDrive\Document Library\GitHub\V-Baby CoreXY\Document Library\Drawings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9A5205-1522-4042-A125-7F5A70B637B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A081009-0BB8-499A-91D0-F4406F9CD585}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
   <si>
     <t>Category</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Material</t>
-  </si>
-  <si>
     <t>Hardware</t>
   </si>
   <si>
@@ -46,18 +43,12 @@
     <t>2820 L Bracket</t>
   </si>
   <si>
-    <t>Aluminum</t>
-  </si>
-  <si>
     <t>Fastners</t>
   </si>
   <si>
     <t>M5 WASHER</t>
   </si>
   <si>
-    <t>Steel</t>
-  </si>
-  <si>
     <t>M5x10 BH</t>
   </si>
   <si>
@@ -127,9 +118,6 @@
     <t>M5 Nut Drop-In</t>
   </si>
   <si>
-    <t>SpringBall</t>
-  </si>
-  <si>
     <t>Idler Buddy Front_1x</t>
   </si>
   <si>
@@ -161,9 +149,6 @@
   </si>
   <si>
     <t>Part</t>
-  </si>
-  <si>
-    <t>PETG</t>
   </si>
 </sst>
 </file>
@@ -548,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -572,10 +557,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -583,10 +568,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -594,10 +579,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>13</v>
@@ -605,10 +590,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -616,10 +601,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -627,10 +612,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -638,10 +623,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -649,10 +634,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -660,10 +645,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -671,10 +656,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -682,10 +667,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -693,10 +678,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>8</v>
@@ -704,10 +689,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>8</v>
@@ -715,10 +700,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -726,10 +711,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -737,10 +722,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -748,10 +733,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -759,10 +744,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -770,10 +755,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -781,10 +766,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -792,10 +777,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -803,10 +788,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C23">
         <v>13</v>
@@ -814,10 +799,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>47</v>
@@ -825,10 +810,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C25">
         <v>60</v>
@@ -836,10 +821,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
         <v>9</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
       </c>
       <c r="C26">
         <v>52</v>
@@ -847,10 +832,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -858,10 +843,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -869,10 +854,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -880,10 +865,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -891,10 +876,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -902,10 +887,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -913,10 +898,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -924,10 +909,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -935,10 +920,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -946,10 +931,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -957,29 +942,18 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E39">
-    <sortCondition ref="B2:B39"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E38">
+    <sortCondition ref="B2:B38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
